--- a/Exercicios/Excel - Model.xlsx
+++ b/Exercicios/Excel - Model.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20348"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44680781890\Documents\Gabriel Amador - 2T\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Family\Documents\Gabriel Rodrigues Amador\SENAI\2Termo\1 Sprint - Modelagem_dB\Banco-de-dados---S12T\Exercicios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEE2E133-38E9-4C9F-A614-393DD4AE3DBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{B2564EE6-7AF5-4E60-AC2B-DB22AD41DFE1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>Clientes</t>
   </si>
@@ -99,9 +98,6 @@
     <t>Equipamentos</t>
   </si>
   <si>
-    <t>Cliente/Colab (N/N)</t>
-  </si>
-  <si>
     <t>Mouse</t>
   </si>
   <si>
@@ -123,14 +119,35 @@
     <t>dd/mm/yyyy</t>
   </si>
   <si>
-    <t xml:space="preserve">Erro </t>
+    <t>Pedido/Colab (N/N)</t>
+  </si>
+  <si>
+    <t>idPedido</t>
+  </si>
+  <si>
+    <t>Travamento Constante</t>
+  </si>
+  <si>
+    <t>Sem áudio</t>
+  </si>
+  <si>
+    <t>Imagem rosada</t>
+  </si>
+  <si>
+    <t>Mau Conexão</t>
+  </si>
+  <si>
+    <t>Suja</t>
+  </si>
+  <si>
+    <t>Teclas desorganizadas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +159,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,18 +187,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -196,41 +221,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,412 +628,462 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A6355FB-C777-4825-A859-B0515E2F99B3}">
-  <dimension ref="B3:M26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="9" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="7">
+        <v>3</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="7">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="7">
+        <v>6</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="7">
+        <v>6</v>
+      </c>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="7">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="7">
+        <v>7</v>
+      </c>
+      <c r="C10" s="7">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="7">
+        <v>4</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="7">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7">
+        <v>4</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="7">
+        <v>4</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="E14" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="6"/>
-      <c r="F3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="9"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="F14" s="15"/>
+      <c r="H14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="F4" s="7" t="s">
+      <c r="H15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="7">
+        <v>1</v>
+      </c>
+      <c r="C17" s="7">
+        <v>8</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="7">
+        <v>2</v>
+      </c>
+      <c r="C18" s="7">
+        <v>5</v>
+      </c>
+      <c r="E18" s="7">
+        <v>3</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="7">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="7">
+        <v>3</v>
+      </c>
+      <c r="C19" s="7">
+        <v>5</v>
+      </c>
+      <c r="E19" s="7">
+        <v>4</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="7">
+        <v>4</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="7">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>5</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="7">
+        <v>5</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="7">
+        <v>2</v>
+      </c>
+      <c r="C21" s="7">
+        <v>3</v>
+      </c>
+      <c r="H21" s="7">
+        <v>6</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
+        <v>2</v>
+      </c>
+      <c r="C22" s="7">
+        <v>4</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
+        <v>2</v>
+      </c>
+      <c r="C23" s="7">
+        <v>7</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="10">
-        <v>1</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="F5" s="11">
-        <v>1</v>
-      </c>
-      <c r="G5" s="11" t="s">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
+        <v>2</v>
+      </c>
+      <c r="C24" s="7">
+        <v>6</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="10">
-        <v>2</v>
-      </c>
-      <c r="C6" s="10" t="s">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8">
+        <v>2</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
+        <v>3</v>
+      </c>
+      <c r="C26" s="7">
         <v>6</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="F6" s="11">
-        <v>2</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
-        <v>3</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="F7" s="11">
-        <v>3</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="E26" s="8">
+        <v>3</v>
+      </c>
+      <c r="F26" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
-        <v>4</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="10">
-        <v>5</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G11" s="13"/>
-      <c r="H11" s="12"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="E12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="8">
-        <v>1</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="E14" s="8">
-        <v>1</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="13"/>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>2</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="1">
-        <v>3</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
-        <v>1</v>
-      </c>
-      <c r="C15" s="8">
-        <v>2</v>
-      </c>
-      <c r="E15" s="8">
-        <v>2</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="13"/>
-      <c r="H15" s="1">
-        <v>2</v>
-      </c>
-      <c r="I15" s="1">
-        <v>3</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="1">
-        <v>3</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="8">
-        <v>2</v>
-      </c>
-      <c r="C16" s="8">
-        <v>4</v>
-      </c>
-      <c r="E16" s="8">
-        <v>3</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="13"/>
-      <c r="H16" s="1">
-        <v>3</v>
-      </c>
-      <c r="I16" s="1">
-        <v>3</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="1">
-        <v>2</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
-        <v>3</v>
-      </c>
-      <c r="C17" s="8">
-        <v>5</v>
-      </c>
-      <c r="E17" s="8">
-        <v>4</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="13"/>
-      <c r="H17" s="1">
-        <v>4</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="8">
-        <v>4</v>
-      </c>
-      <c r="C18" s="8">
-        <v>3</v>
-      </c>
-      <c r="E18" s="8">
-        <v>5</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="1">
-        <v>6</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="E19" s="8">
-        <v>6</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G19" s="13"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="1">
-        <v>5</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G20" s="13"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="1">
-        <v>4</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G21" s="13"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="1">
-        <v>4</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G22" s="13"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G23" s="13"/>
-      <c r="H23" s="12"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G24" s="13"/>
-      <c r="H24" s="12"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="12"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H29" s="12"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H30" s="12"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H31" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="H14:I14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
